--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.53571949199221</v>
+        <v>127.0229746011717</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.033744978515</v>
+        <v>173.7984377073861</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8642086156886</v>
+        <v>157.2113587402809</v>
       </c>
       <c r="AD2" t="n">
-        <v>85535.7194919922</v>
+        <v>127022.9746011717</v>
       </c>
       <c r="AE2" t="n">
-        <v>117033.744978515</v>
+        <v>173798.4377073861</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.406693151105955e-06</v>
+        <v>5.759183799117029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>105864.2086156886</v>
+        <v>157211.3587402809</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.99968376498676</v>
+        <v>99.15779552415719</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.04016726154239</v>
+        <v>135.6720703692945</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.1605442808184</v>
+        <v>122.723718390232</v>
       </c>
       <c r="AD3" t="n">
-        <v>67999.68376498675</v>
+        <v>99157.79552415719</v>
       </c>
       <c r="AE3" t="n">
-        <v>93040.16726154239</v>
+        <v>135672.0703692945</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.070198868908886e-06</v>
+        <v>6.880873135695999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>84160.5442808184</v>
+        <v>122723.718390232</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.84304966631085</v>
+        <v>97.00116142548129</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.089365343754</v>
+        <v>132.7212684515061</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.49136275658628</v>
+        <v>120.0545368659999</v>
       </c>
       <c r="AD4" t="n">
-        <v>65843.04966631085</v>
+        <v>97001.16142548129</v>
       </c>
       <c r="AE4" t="n">
-        <v>90089.36534375399</v>
+        <v>132721.2684515061</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.270212254395881e-06</v>
+        <v>7.219005687766117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.748263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>81491.36275658628</v>
+        <v>120054.5368659999</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.31376754134747</v>
+        <v>97.49499273761852</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.7841075927285</v>
+        <v>133.3969502390718</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.68822083303276</v>
+        <v>120.6657325320859</v>
       </c>
       <c r="AD2" t="n">
-        <v>77313.76754134748</v>
+        <v>97494.99273761852</v>
       </c>
       <c r="AE2" t="n">
-        <v>105784.1075927285</v>
+        <v>133396.9502390718</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01956525520366e-06</v>
+        <v>6.961046962953188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.217013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>95688.22083303276</v>
+        <v>120665.7325320859</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.85672242765385</v>
+        <v>93.04308510466223</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.00334066836602</v>
+        <v>127.3056538113608</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.7953025414444</v>
+        <v>115.1557808862455</v>
       </c>
       <c r="AD3" t="n">
-        <v>62856.72242765385</v>
+        <v>93043.08510466223</v>
       </c>
       <c r="AE3" t="n">
-        <v>86003.34066836603</v>
+        <v>127305.6538113608</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.53431957206375e-06</v>
+        <v>7.852493859954595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>77795.3025414444</v>
+        <v>115155.7808862455</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.61027897605863</v>
+        <v>82.87675551835025</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.66614586557586</v>
+        <v>113.3956331645684</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.49028913737656</v>
+        <v>102.5733130871419</v>
       </c>
       <c r="AD4" t="n">
-        <v>62610.27897605863</v>
+        <v>82876.75551835026</v>
       </c>
       <c r="AE4" t="n">
-        <v>85666.14586557586</v>
+        <v>113395.6331645684</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.590339368250794e-06</v>
+        <v>7.949508439232353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>77490.28913737656</v>
+        <v>102573.3130871419</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.14348808588426</v>
+        <v>73.28896796529418</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.44975315807905</v>
+        <v>100.2771992511495</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.24893461108275</v>
+        <v>90.70688409457793</v>
       </c>
       <c r="AD2" t="n">
-        <v>55143.48808588427</v>
+        <v>73288.96796529417</v>
       </c>
       <c r="AE2" t="n">
-        <v>75449.75315807905</v>
+        <v>100277.1992511495</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.215807146921157e-06</v>
+        <v>9.86942951005198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>68248.93461108275</v>
+        <v>90706.88409457792</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.90261261359377</v>
+        <v>76.81062282551784</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.2249090608726</v>
+        <v>105.0956827953525</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.66379493297948</v>
+        <v>95.06549833210785</v>
       </c>
       <c r="AD2" t="n">
-        <v>57902.61261359377</v>
+        <v>76810.62282551784</v>
       </c>
       <c r="AE2" t="n">
-        <v>79224.90906087261</v>
+        <v>105095.6827953525</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.014052788029069e-06</v>
+        <v>9.134515253977445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>71663.79493297948</v>
+        <v>95065.49833210785</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.88980378862504</v>
+        <v>76.79781400054911</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.20738346146493</v>
+        <v>105.0781571959448</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.64794195218192</v>
+        <v>95.04964535131029</v>
       </c>
       <c r="AD3" t="n">
-        <v>57889.80378862504</v>
+        <v>76797.81400054912</v>
       </c>
       <c r="AE3" t="n">
-        <v>79207.38346146492</v>
+        <v>105078.1571959448</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.018666765178359e-06</v>
+        <v>9.142920918303978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>71647.94195218192</v>
+        <v>95049.64535131029</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.96080945850596</v>
+        <v>70.651450247212</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.46331596711653</v>
+        <v>96.66843115020174</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.54751879413382</v>
+        <v>87.44253175624563</v>
       </c>
       <c r="AD2" t="n">
-        <v>52960.80945850596</v>
+        <v>70651.45024721199</v>
       </c>
       <c r="AE2" t="n">
-        <v>72463.31596711653</v>
+        <v>96668.43115020174</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.321462804135256e-06</v>
+        <v>1.042835251830092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>65547.51879413382</v>
+        <v>87442.53175624563</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.29810247783149</v>
+        <v>109.6546297472871</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.4991621955035</v>
+        <v>150.0343020410166</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.14415443512286</v>
+        <v>135.7152388287282</v>
       </c>
       <c r="AD2" t="n">
-        <v>79298.10247783149</v>
+        <v>109654.6297472871</v>
       </c>
       <c r="AE2" t="n">
-        <v>108499.1621955035</v>
+        <v>150034.3020410165</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.84942833500138e-06</v>
+        <v>6.622869109176855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.399305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>98144.15443512285</v>
+        <v>135715.2388287282</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.7530906352557</v>
+        <v>94.19486925073193</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.22979119498063</v>
+        <v>128.8815756931429</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.90470235113341</v>
+        <v>116.581298995451</v>
       </c>
       <c r="AD3" t="n">
-        <v>63753.09063525569</v>
+        <v>94194.86925073192</v>
       </c>
       <c r="AE3" t="n">
-        <v>87229.79119498063</v>
+        <v>128881.5756931429</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.44994059103507e-06</v>
+        <v>7.656039160429727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>78904.70235113341</v>
+        <v>116581.298995451</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.50302158716868</v>
+        <v>83.93977542177218</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.88763569112037</v>
+        <v>114.8501038935579</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.5952016883432</v>
+        <v>103.8889711711196</v>
       </c>
       <c r="AD4" t="n">
-        <v>63503.02158716868</v>
+        <v>83939.77542177218</v>
       </c>
       <c r="AE4" t="n">
-        <v>86887.63569112036</v>
+        <v>114850.1038935579</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.496148567380999e-06</v>
+        <v>7.735539115359764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>78595.20168834319</v>
+        <v>103888.9711711196</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.71895833504543</v>
+        <v>77.4860439292373</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.76416047339376</v>
+        <v>106.019823746937</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.0105283159517</v>
+        <v>95.90144056831342</v>
       </c>
       <c r="AD2" t="n">
-        <v>51718.95833504543</v>
+        <v>77486.04392923729</v>
       </c>
       <c r="AE2" t="n">
-        <v>70764.16047339376</v>
+        <v>106019.8237469371</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.33211004185473e-06</v>
+        <v>1.068906972460984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64010.5283159517</v>
+        <v>95901.44056831342</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.18212903404906</v>
+        <v>91.53954341242189</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.08033222627633</v>
+        <v>125.2484417364606</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.96038472961696</v>
+        <v>113.2949062444578</v>
       </c>
       <c r="AD2" t="n">
-        <v>62182.12903404906</v>
+        <v>91539.54341242189</v>
       </c>
       <c r="AE2" t="n">
-        <v>85080.33222627632</v>
+        <v>125248.4417364606</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.517856807149094e-06</v>
+        <v>8.001460113394449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>76960.38472961696</v>
+        <v>113294.9062444578</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.4043233629435</v>
+        <v>80.11816770614476</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.64786007582011</v>
+        <v>109.6212116196057</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.76006430720339</v>
+        <v>99.15911703699531</v>
       </c>
       <c r="AD3" t="n">
-        <v>60404.3233629435</v>
+        <v>80118.16770614476</v>
       </c>
       <c r="AE3" t="n">
-        <v>82647.86007582011</v>
+        <v>109621.2116196057</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.777412529508297e-06</v>
+        <v>8.461152584473669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>74760.0643072034</v>
+        <v>99159.11703699532</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.69152336398861</v>
+        <v>95.69599626019067</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.5644815409051</v>
+        <v>130.9354838925331</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.68043277632998</v>
+        <v>118.4391850789703</v>
       </c>
       <c r="AD2" t="n">
-        <v>75691.52336398861</v>
+        <v>95695.99626019067</v>
       </c>
       <c r="AE2" t="n">
-        <v>103564.4815409051</v>
+        <v>130935.4838925331</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.160878802579849e-06</v>
+        <v>7.256209307072786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.086805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>93680.43277632998</v>
+        <v>118439.1850789703</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.05186037098464</v>
+        <v>82.14158461320727</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.90209289442387</v>
+        <v>112.389739898701</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.79915630943596</v>
+        <v>101.6634208627885</v>
       </c>
       <c r="AD3" t="n">
-        <v>62051.86037098464</v>
+        <v>82141.58461320728</v>
       </c>
       <c r="AE3" t="n">
-        <v>84902.09289442387</v>
+        <v>112389.739898701</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.623921818765293e-06</v>
+        <v>8.063715894752442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>76799.15630943596</v>
+        <v>101663.4208627885</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.99787977519297</v>
+        <v>114.0101557467406</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.5613607164056</v>
+        <v>155.9937248657115</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.7232238340319</v>
+        <v>141.1059027031386</v>
       </c>
       <c r="AD2" t="n">
-        <v>82997.87977519297</v>
+        <v>114010.1557467406</v>
       </c>
       <c r="AE2" t="n">
-        <v>113561.3607164056</v>
+        <v>155993.7248657115</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573142153490227e-06</v>
+        <v>6.074104846010643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.711805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>102723.2238340319</v>
+        <v>141105.9027031387</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.51999049153653</v>
+        <v>97.44692560851257</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.01558564534876</v>
+        <v>133.331182672457</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.32918589255551</v>
+        <v>120.6062417297234</v>
       </c>
       <c r="AD3" t="n">
-        <v>66519.99049153653</v>
+        <v>97446.92560851257</v>
       </c>
       <c r="AE3" t="n">
-        <v>91015.58564534876</v>
+        <v>133331.182672457</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.206871560828616e-06</v>
+        <v>7.15140283719567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>82329.18589255551</v>
+        <v>120606.2417297234</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.11581771032874</v>
+        <v>96.04275282730478</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.09433449837019</v>
+        <v>131.4099315254784</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.59129625855104</v>
+        <v>118.868352095719</v>
       </c>
       <c r="AD4" t="n">
-        <v>65115.81771032875</v>
+        <v>96042.75282730478</v>
       </c>
       <c r="AE4" t="n">
-        <v>89094.33449837018</v>
+        <v>131409.9315254784</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.349004820517914e-06</v>
+        <v>7.393019958589722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.696180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>80591.29625855104</v>
+        <v>118868.352095719</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.77495294205042</v>
+        <v>88.51405117094038</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.78672770009128</v>
+        <v>121.1088297763702</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.98111719680696</v>
+        <v>109.5503730398553</v>
       </c>
       <c r="AD2" t="n">
-        <v>59774.95294205042</v>
+        <v>88514.05117094038</v>
       </c>
       <c r="AE2" t="n">
-        <v>81786.72770009127</v>
+        <v>121108.8297763702</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.76439259942367e-06</v>
+        <v>8.591327302351496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73981.11719680697</v>
+        <v>109550.3730398553</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.92797017248845</v>
+        <v>78.2296037493678</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.62784850853456</v>
+        <v>107.0371950963832</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.93283980879491</v>
+        <v>96.82171542405844</v>
       </c>
       <c r="AD3" t="n">
-        <v>58927.97017248845</v>
+        <v>78229.6037493678</v>
       </c>
       <c r="AE3" t="n">
-        <v>80627.84850853456</v>
+        <v>107037.1950963832</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.902810399355638e-06</v>
+        <v>8.840927350809048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72932.8398087949</v>
+        <v>96821.71542405844</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.92861822551744</v>
+        <v>74.3468078784491</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.52400285262179</v>
+        <v>101.7245824889306</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.2206594224976</v>
+        <v>92.01613110756081</v>
       </c>
       <c r="AD2" t="n">
-        <v>55928.61822551744</v>
+        <v>74346.80787844909</v>
       </c>
       <c r="AE2" t="n">
-        <v>76524.00285262179</v>
+        <v>101724.5824889306</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196085639766463e-06</v>
+        <v>9.694234912764014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69220.6594224976</v>
+        <v>92016.13110756081</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.02571653669811</v>
+        <v>71.87411048366268</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.92036881188287</v>
+        <v>98.3413288256755</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.86551256038264</v>
+        <v>88.95577042549932</v>
       </c>
       <c r="AD2" t="n">
-        <v>54025.71653669811</v>
+        <v>71874.11048366268</v>
       </c>
       <c r="AE2" t="n">
-        <v>73920.36881188287</v>
+        <v>98341.3288256755</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.300370182039795e-06</v>
+        <v>1.019280841691132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>66865.51256038265</v>
+        <v>88955.77042549933</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.66682793715777</v>
+        <v>75.7876873328937</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.32458924628735</v>
+        <v>103.6960573256159</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.70834774630896</v>
+        <v>93.79945115281579</v>
       </c>
       <c r="AD2" t="n">
-        <v>50666.82793715777</v>
+        <v>75787.68733289369</v>
       </c>
       <c r="AE2" t="n">
-        <v>69324.58924628735</v>
+        <v>103696.0573256159</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.155870021896548e-06</v>
+        <v>1.063449400819833e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>62708.34774630896</v>
+        <v>93799.45115281579</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.72373179954415</v>
+        <v>93.36906885553429</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.1896211407397</v>
+        <v>127.7516791606918</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.86836607049021</v>
+        <v>115.559238202237</v>
       </c>
       <c r="AD2" t="n">
-        <v>63723.73179954415</v>
+        <v>93369.06885553429</v>
       </c>
       <c r="AE2" t="n">
-        <v>87189.62114073971</v>
+        <v>127751.6791606918</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356729221293433e-06</v>
+        <v>7.654601378535335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>78868.36607049021</v>
+        <v>115559.238202237</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.27689808773376</v>
+        <v>81.18269088267989</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.84175530955754</v>
+        <v>111.0777391931883</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.8400158554758</v>
+        <v>100.476635663205</v>
       </c>
       <c r="AD3" t="n">
-        <v>61276.89808773376</v>
+        <v>81182.69088267989</v>
       </c>
       <c r="AE3" t="n">
-        <v>83841.75530955754</v>
+        <v>111077.7391931883</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.692829960587066e-06</v>
+        <v>8.245117119047662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>75840.01585547579</v>
+        <v>100476.635663205</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.99903627199814</v>
+        <v>111.7727565892444</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8264548525841</v>
+        <v>152.9324166313422</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2493335473882</v>
+        <v>138.3367614300835</v>
       </c>
       <c r="AD2" t="n">
-        <v>80999.03627199813</v>
+        <v>111772.7565892444</v>
       </c>
       <c r="AE2" t="n">
-        <v>110826.4548525841</v>
+        <v>152932.4166313422</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.723000233402098e-06</v>
+        <v>6.365915499053048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.529513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>100249.3335473882</v>
+        <v>138336.7614300835</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.03939276122657</v>
+        <v>95.72777222390123</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.98976651137787</v>
+        <v>130.9789611679384</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.49670809347515</v>
+        <v>118.4785129442317</v>
       </c>
       <c r="AD3" t="n">
-        <v>65039.39276122657</v>
+        <v>95727.77222390122</v>
       </c>
       <c r="AE3" t="n">
-        <v>88989.76651137786</v>
+        <v>130978.9611679384</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345465394039603e-06</v>
+        <v>7.430261554734551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80496.70809347514</v>
+        <v>118478.5129442317</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.14378681616357</v>
+        <v>94.83216627883822</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.76435894599754</v>
+        <v>129.7535536025581</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.38825170626401</v>
+        <v>117.3700565570206</v>
       </c>
       <c r="AD4" t="n">
-        <v>64143.78681616357</v>
+        <v>94832.16627883821</v>
       </c>
       <c r="AE4" t="n">
-        <v>87764.35894599755</v>
+        <v>129753.5536025581</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.444963026622639e-06</v>
+        <v>7.60039141819702e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>79388.25170626401</v>
+        <v>117370.0565570206</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.59083143051988</v>
+        <v>82.00461683076129</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.79831629137611</v>
+        <v>112.2023345361664</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.27791557867688</v>
+        <v>101.4939012050291</v>
       </c>
       <c r="AD2" t="n">
-        <v>57590.83143051988</v>
+        <v>82004.6168307613</v>
       </c>
       <c r="AE2" t="n">
-        <v>78798.3162913761</v>
+        <v>112202.3345361664</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.740458898042227e-06</v>
+        <v>1.016098682865568e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>71277.91557867688</v>
+        <v>101493.9012050291</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.85404950183246</v>
+        <v>75.52528610597041</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.79021875202184</v>
+        <v>103.3370283906145</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.36602945360448</v>
+        <v>93.47468743547057</v>
       </c>
       <c r="AD2" t="n">
-        <v>56854.04950183246</v>
+        <v>75525.28610597042</v>
       </c>
       <c r="AE2" t="n">
-        <v>77790.21875202184</v>
+        <v>103337.0283906145</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.122281878681935e-06</v>
+        <v>9.437458787257374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70366.02945360448</v>
+        <v>93474.68743547057</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.88768527259969</v>
+        <v>89.94363714073479</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.30921716503383</v>
+        <v>123.0648523691238</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.35830240404326</v>
+        <v>111.3197155816519</v>
       </c>
       <c r="AD2" t="n">
-        <v>60887.68527259969</v>
+        <v>89943.63714073479</v>
       </c>
       <c r="AE2" t="n">
-        <v>83309.21716503383</v>
+        <v>123064.8523691237</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.648633588138058e-06</v>
+        <v>8.304444655922357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.696180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>75358.30240404326</v>
+        <v>111319.715581652</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.45018777762654</v>
+        <v>78.79246491341046</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.34236967449887</v>
+        <v>107.807326572708</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.57916807751657</v>
+        <v>97.51834663316933</v>
       </c>
       <c r="AD3" t="n">
-        <v>59450.18777762654</v>
+        <v>78792.46491341045</v>
       </c>
       <c r="AE3" t="n">
-        <v>81342.36967449887</v>
+        <v>107807.326572708</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.88826606499405e-06</v>
+        <v>8.732530587859456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.470486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>73579.16807751657</v>
+        <v>97518.34663316933</v>
       </c>
     </row>
   </sheetData>
